--- a/data/奄美市（簡水）.xlsx
+++ b/data/奄美市（簡水）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunro_aclp083\OneDrive\Desktop\作業中\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1FCE95-698A-408D-B291-178E159F66B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E17806E-36F4-456B-A88D-ACC82A1B077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B20C7969-93C7-4A0B-875A-D2C0911CE647}"/>
   </bookViews>
@@ -156,22 +156,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.shiohamaBrg.jpg</t>
-  </si>
-  <si>
-    <t>2.naemichiBrg.jpg</t>
-  </si>
-  <si>
-    <t>3.genatsubenpit.jpg</t>
-  </si>
-  <si>
-    <t>4.asahiJHS.jpg</t>
-  </si>
-  <si>
-    <t>5.minatoBrg.jpg</t>
-  </si>
-  <si>
-    <t>6,7.kawakamiBrg.jpg</t>
+    <t>AK1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK4.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK5.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK6,7.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
